--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="202">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -306,6 +306,88 @@
     <t>HC1</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CertDCC.cert.ver</t>
   </si>
   <si>
@@ -316,6 +398,15 @@
   </si>
   <si>
     <t>PersonName</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.nam.id</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.nam.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.nam.modifierExtension</t>
   </si>
   <si>
     <t>CertDCC.cert.nam.fn</t>
@@ -358,6 +449,15 @@
     <t>Vaccination Group</t>
   </si>
   <si>
+    <t>CertDCC.cert.v.id</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.v.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.v.modifierExtension</t>
+  </si>
+  <si>
     <t>CertDCC.cert.v.tg</t>
   </si>
   <si>
@@ -428,6 +528,15 @@
     <t>Test Group</t>
   </si>
   <si>
+    <t>CertDCC.cert.t.id</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.t.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.t.modifierExtension</t>
+  </si>
+  <si>
     <t>CertDCC.cert.t.tg</t>
   </si>
   <si>
@@ -483,6 +592,15 @@
   </si>
   <si>
     <t>Recovery Group</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.r.id</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.r.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.cert.r.modifierExtension</t>
   </si>
   <si>
     <t>CertDCC.cert.r.tg</t>
@@ -817,7 +935,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -826,9 +944,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.37109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.94140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -853,10 +971,10 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="21.37109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1868,7 +1986,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -1876,7 +1994,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1902,10 +2020,10 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1956,7 +2074,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -1971,23 +2089,23 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -1999,15 +2117,17 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -2044,71 +2164,75 @@
         <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>72</v>
       </c>
@@ -2156,27 +2280,27 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2202,10 +2326,10 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2256,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2276,7 +2400,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2299,13 +2423,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2356,7 +2480,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2368,7 +2492,7 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>72</v>
@@ -2376,7 +2500,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2402,10 +2526,10 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2456,7 +2580,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2471,23 +2595,23 @@
         <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2499,15 +2623,17 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>72</v>
@@ -2544,43 +2670,43 @@
         <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2593,22 +2719,26 @@
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>72</v>
       </c>
@@ -2656,7 +2786,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -2668,15 +2798,15 @@
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2702,10 +2832,10 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2756,7 +2886,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -2776,7 +2906,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2802,10 +2932,10 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2856,7 +2986,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -2876,7 +3006,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2902,10 +3032,10 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2956,7 +3086,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -2976,7 +3106,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3002,10 +3132,10 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3056,7 +3186,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3076,7 +3206,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3099,13 +3229,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3156,7 +3286,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3176,7 +3306,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3187,7 +3317,7 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3199,13 +3329,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3256,19 +3386,19 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
@@ -3276,7 +3406,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3299,13 +3429,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3356,7 +3486,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3371,23 +3501,23 @@
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -3399,15 +3529,17 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -3444,71 +3576,75 @@
         <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>72</v>
       </c>
@@ -3556,27 +3692,27 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3602,10 +3738,10 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3656,7 +3792,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -3676,7 +3812,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3687,7 +3823,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -3699,13 +3835,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3756,13 +3892,13 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
@@ -3776,7 +3912,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3802,10 +3938,10 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3856,7 +3992,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -3876,7 +4012,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3902,10 +4038,10 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3956,7 +4092,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -3976,7 +4112,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3999,13 +4135,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4056,7 +4192,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4076,7 +4212,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4099,13 +4235,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4156,7 +4292,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4176,7 +4312,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4202,10 +4338,10 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4256,7 +4392,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4276,7 +4412,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4302,10 +4438,10 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4356,7 +4492,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4376,7 +4512,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4402,10 +4538,10 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4456,7 +4592,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -4476,7 +4612,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4502,10 +4638,10 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4556,7 +4692,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -4576,7 +4712,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4587,7 +4723,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4599,13 +4735,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4656,19 +4792,19 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
@@ -4676,7 +4812,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4702,10 +4838,10 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4756,7 +4892,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -4771,16 +4907,16 @@
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -4799,15 +4935,17 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -4844,19 +4982,19 @@
         <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -4868,47 +5006,51 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
       </c>
@@ -4956,27 +5098,27 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4999,13 +5141,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5056,7 +5198,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5076,7 +5218,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5099,13 +5241,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5156,7 +5298,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5176,7 +5318,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5199,13 +5341,13 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5256,7 +5398,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -5276,7 +5418,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5302,10 +5444,10 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5356,7 +5498,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -5376,7 +5518,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5399,13 +5541,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5456,7 +5598,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -5476,7 +5618,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5502,10 +5644,10 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5556,21 +5698,1527 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="L51" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="214">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,71 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>CertDCC.cert</t>
+    <t>CertDCC.data</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>CertDCC.data.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>CertDCC.data.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CertDCC.data.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -306,11 +370,7 @@
     <t>HC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.id</t>
+    <t>CertDCC.data.cert.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -319,30 +379,13 @@
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>CertDCC.cert.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
+    <t>CertDCC.data.cert.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -355,14 +398,7 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.modifierExtension</t>
+    <t>CertDCC.data.cert.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -388,52 +424,52 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>CertDCC.cert.ver</t>
+    <t>CertDCC.data.cert.ver</t>
   </si>
   <si>
     <t>Schema version</t>
   </si>
   <si>
-    <t>CertDCC.cert.nam</t>
+    <t>CertDCC.data.cert.nam</t>
   </si>
   <si>
     <t>PersonName</t>
   </si>
   <si>
-    <t>CertDCC.cert.nam.id</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.nam.extension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.nam.modifierExtension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.nam.fn</t>
+    <t>CertDCC.data.cert.nam.id</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.nam.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.nam.modifierExtension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.nam.fn</t>
   </si>
   <si>
     <t>Surname</t>
   </si>
   <si>
-    <t>CertDCC.cert.nam.fnt</t>
+    <t>CertDCC.data.cert.nam.fnt</t>
   </si>
   <si>
     <t>Standardised surname</t>
   </si>
   <si>
-    <t>CertDCC.cert.nam.gn</t>
+    <t>CertDCC.data.cert.nam.gn</t>
   </si>
   <si>
     <t>Forename</t>
   </si>
   <si>
-    <t>CertDCC.cert.nam.gnt</t>
+    <t>CertDCC.data.cert.nam.gnt</t>
   </si>
   <si>
     <t>Standardised forename</t>
   </si>
   <si>
-    <t>CertDCC.cert.dob</t>
+    <t>CertDCC.data.cert.dob</t>
   </si>
   <si>
     <t xml:space="preserve">date
@@ -443,46 +479,46 @@
     <t>date of birth</t>
   </si>
   <si>
-    <t>CertDCC.cert.v</t>
+    <t>CertDCC.data.cert.v</t>
   </si>
   <si>
     <t>Vaccination Group</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.id</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.v.extension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.v.modifierExtension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.v.tg</t>
+    <t>CertDCC.data.cert.v.id</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.v.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.v.modifierExtension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.v.tg</t>
   </si>
   <si>
     <t>disease or agent targeted</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.vp</t>
+    <t>CertDCC.data.cert.v.vp</t>
   </si>
   <si>
     <t>vaccine or prophylaxis</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.mp</t>
+    <t>CertDCC.data.cert.v.mp</t>
   </si>
   <si>
     <t>vaccine medicinal product</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.ma</t>
+    <t>CertDCC.data.cert.v.ma</t>
   </si>
   <si>
     <t>Marketing Authorization Holder - if no MAH present then manufacturer</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.dn</t>
+    <t>CertDCC.data.cert.v.dn</t>
   </si>
   <si>
     <t xml:space="preserve">positiveInt
@@ -492,145 +528,145 @@
     <t>Dose Number</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.sd</t>
+    <t>CertDCC.data.cert.v.sd</t>
   </si>
   <si>
     <t>Total Series of Doses</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.dt</t>
+    <t>CertDCC.data.cert.v.dt</t>
   </si>
   <si>
     <t>ISO8601 complete date Date of Vaccination</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.co</t>
+    <t>CertDCC.data.cert.v.co</t>
   </si>
   <si>
     <t>Country of Vaccination</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.is</t>
+    <t>CertDCC.data.cert.v.is</t>
   </si>
   <si>
     <t>Certificate Issuer</t>
   </si>
   <si>
-    <t>CertDCC.cert.v.ci</t>
+    <t>CertDCC.data.cert.v.ci</t>
   </si>
   <si>
     <t>Unique Certificate Identifier UVCI</t>
   </si>
   <si>
-    <t>CertDCC.cert.t</t>
+    <t>CertDCC.data.cert.t</t>
   </si>
   <si>
     <t>Test Group</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.id</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.t.extension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.t.modifierExtension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.t.tg</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.t.tt</t>
+    <t>CertDCC.data.cert.t.id</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.t.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.t.modifierExtension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.t.tg</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.t.tt</t>
   </si>
   <si>
     <t>Type of Test</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.nm</t>
+    <t>CertDCC.data.cert.t.nm</t>
   </si>
   <si>
     <t>NAA Test Name</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.ma</t>
+    <t>CertDCC.data.cert.t.ma</t>
   </si>
   <si>
     <t>RAT Test name and manufacturer</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.sc</t>
+    <t>CertDCC.data.cert.t.sc</t>
   </si>
   <si>
     <t>Date/Time of Collection</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.tr</t>
+    <t>CertDCC.data.cert.t.tr</t>
   </si>
   <si>
     <t>Test Result</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.tc</t>
+    <t>CertDCC.data.cert.t.tc</t>
   </si>
   <si>
     <t>Testing Centre</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.co</t>
+    <t>CertDCC.data.cert.t.co</t>
   </si>
   <si>
     <t>Country of Test</t>
   </si>
   <si>
-    <t>CertDCC.cert.t.is</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.t.ci</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.r</t>
+    <t>CertDCC.data.cert.t.is</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.t.ci</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.r</t>
   </si>
   <si>
     <t>Recovery Group</t>
   </si>
   <si>
-    <t>CertDCC.cert.r.id</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.r.extension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.r.modifierExtension</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.r.tg</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.r.fr</t>
+    <t>CertDCC.data.cert.r.id</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.r.extension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.r.modifierExtension</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.r.tg</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.r.fr</t>
   </si>
   <si>
     <t>ISO 8601 complete date of first positive NAA test result</t>
   </si>
   <si>
-    <t>CertDCC.cert.r.df</t>
+    <t>CertDCC.data.cert.r.df</t>
   </si>
   <si>
     <t>ISO 8601 complete date Certificate Valid From</t>
   </si>
   <si>
-    <t>CertDCC.cert.r.du</t>
+    <t>CertDCC.data.cert.r.du</t>
   </si>
   <si>
     <t>ISO 8601 complete date Certificate Valid Until</t>
   </si>
   <si>
-    <t>CertDCC.cert.r.co</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.r.is</t>
-  </si>
-  <si>
-    <t>CertDCC.cert.r.ci</t>
+    <t>CertDCC.data.cert.r.co</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.r.is</t>
+  </si>
+  <si>
+    <t>CertDCC.data.cert.r.ci</t>
   </si>
 </sst>
 </file>
@@ -935,7 +971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ62"/>
+  <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -944,7 +980,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1917,13 +1953,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1986,7 +2022,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -1994,7 +2030,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2020,10 +2056,10 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2074,7 +2110,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2089,16 +2125,16 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2117,16 +2153,16 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2164,19 +2200,19 @@
         <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2188,51 +2224,47 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>72</v>
       </c>
@@ -2253,7 +2285,7 @@
         <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>72</v>
@@ -2280,27 +2312,27 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2323,13 +2355,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2380,7 +2412,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2392,7 +2424,7 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
@@ -2400,7 +2432,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2423,13 +2455,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2480,7 +2512,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2492,26 +2524,26 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2523,15 +2555,17 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>72</v>
@@ -2568,43 +2602,43 @@
         <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2617,24 +2651,26 @@
         <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>72</v>
       </c>
@@ -2670,19 +2706,19 @@
         <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -2694,51 +2730,47 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>72</v>
       </c>
@@ -2786,27 +2818,27 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2829,13 +2861,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2886,7 +2918,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -2898,7 +2930,7 @@
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>72</v>
@@ -2906,7 +2938,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2932,10 +2964,10 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2986,7 +3018,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3001,23 +3033,23 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3029,15 +3061,17 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>72</v>
@@ -3074,71 +3108,75 @@
         <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>72</v>
       </c>
@@ -3186,27 +3224,27 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3229,13 +3267,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3286,7 +3324,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3306,7 +3344,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3317,7 +3355,7 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3329,13 +3367,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3386,19 +3424,19 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
@@ -3406,7 +3444,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3432,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3486,7 +3524,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3501,23 +3539,23 @@
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -3529,17 +3567,15 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -3576,75 +3612,71 @@
         <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>72</v>
       </c>
@@ -3692,27 +3724,27 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3723,7 +3755,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -3735,13 +3767,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3792,19 +3824,19 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>72</v>
@@ -3812,7 +3844,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3838,10 +3870,10 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3892,7 +3924,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -3907,23 +3939,23 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -3935,15 +3967,17 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -3980,71 +4014,75 @@
         <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
       </c>
@@ -4092,27 +4130,27 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4135,13 +4173,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4192,7 +4230,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4212,7 +4250,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4235,13 +4273,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4292,7 +4330,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4312,7 +4350,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4335,13 +4373,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4392,7 +4430,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4412,7 +4450,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4438,10 +4476,10 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4492,7 +4530,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4512,7 +4550,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4535,13 +4573,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4592,7 +4630,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -4612,7 +4650,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4635,13 +4673,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4692,7 +4730,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -4712,7 +4750,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4723,7 +4761,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4735,13 +4773,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4792,19 +4830,19 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
@@ -4812,7 +4850,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4838,10 +4876,10 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4892,7 +4930,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -4907,23 +4945,23 @@
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -4935,17 +4973,15 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -4982,75 +5018,71 @@
         <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>72</v>
       </c>
@@ -5098,27 +5130,27 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5129,7 +5161,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -5141,13 +5173,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5198,19 +5230,19 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
@@ -5218,7 +5250,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5244,10 +5276,10 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5298,7 +5330,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5313,23 +5345,23 @@
         <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -5341,15 +5373,17 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -5386,71 +5420,75 @@
         <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>72</v>
       </c>
@@ -5498,27 +5536,27 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5541,13 +5579,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5598,7 +5636,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -5618,7 +5656,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5644,10 +5682,10 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5698,7 +5736,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -5718,7 +5756,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5744,10 +5782,10 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5798,7 +5836,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -5818,7 +5856,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5844,10 +5882,10 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5898,7 +5936,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -5918,7 +5956,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5941,13 +5979,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5998,7 +6036,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6018,7 +6056,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6044,10 +6082,10 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6098,7 +6136,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6118,7 +6156,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6129,7 +6167,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -6141,13 +6179,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6198,19 +6236,19 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
@@ -6218,7 +6256,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6244,10 +6282,10 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6298,7 +6336,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -6313,23 +6351,23 @@
         <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -6341,17 +6379,15 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -6388,75 +6424,71 @@
         <v>72</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>72</v>
       </c>
@@ -6504,27 +6536,27 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6535,7 +6567,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -6547,13 +6579,13 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6604,19 +6636,19 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
@@ -6624,7 +6656,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6647,13 +6679,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6704,7 +6736,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -6719,23 +6751,23 @@
         <v>72</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>72</v>
@@ -6747,15 +6779,17 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>72</v>
@@ -6792,71 +6826,75 @@
         <v>72</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
       </c>
@@ -6904,27 +6942,27 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6950,10 +6988,10 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7004,7 +7042,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -7024,7 +7062,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7047,13 +7085,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7104,7 +7142,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -7124,7 +7162,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7147,13 +7185,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7204,7 +7242,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7219,6 +7257,406 @@
         <v>72</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-CertDCC.xlsx
+++ b/refs/heads/main/StructureDefinition-CertDCC.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
